--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/67.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/67.xlsx
@@ -479,13 +479,13 @@
         <v>-3.396357643436818</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.743670982080163</v>
+        <v>-8.614266660792543</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.059909549401625</v>
+        <v>-3.063837240254143</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.469534795118467</v>
+        <v>-5.434591438833899</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.046344255704999</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.997517641878391</v>
+        <v>-8.85809770891685</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.150390454340794</v>
+        <v>-3.158900451187916</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.405971664821887</v>
+        <v>-5.361209081406025</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.742941679438854</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.812369478444579</v>
+        <v>-9.678029358985627</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.032206236588533</v>
+        <v>-3.044198785991554</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.275925820695021</v>
+        <v>-5.236884573620994</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.51385363531951</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.57431531922735</v>
+        <v>-10.44857684273541</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.939709117011738</v>
+        <v>-2.946844422060479</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.486960650200804</v>
+        <v>-5.44346802016059</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.338050406567604</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.35444636865728</v>
+        <v>-11.22720227733855</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.791137664363831</v>
+        <v>-2.793546648086708</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.040421477178053</v>
+        <v>-4.996693185686688</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.20059296641874</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.01280590935632</v>
+        <v>-11.88893963217075</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.758799676344768</v>
+        <v>-2.763015397859803</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.177105118845673</v>
+        <v>-5.136453518522114</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.080631257686767</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.51104658630105</v>
+        <v>-12.38604127876825</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.637787521178693</v>
+        <v>-2.642762596258549</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.735082790303317</v>
+        <v>-4.696447404617384</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.955717132049881</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.48533648687378</v>
+        <v>-13.36342096281162</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.386493860434603</v>
+        <v>-2.389177782517157</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.642912978297566</v>
+        <v>-4.614594327250912</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.799944987380964</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.22622990468706</v>
+        <v>-14.11103073198271</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.366174606424245</v>
+        <v>-2.364655899294604</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.262594673048265</v>
+        <v>-4.247656355505856</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.599165495588813</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.9257254609148</v>
+        <v>-14.80839224284725</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.189022656672849</v>
+        <v>-2.187150457366482</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.052266827895936</v>
+        <v>-4.032484358302088</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.339899882038994</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.58598338552588</v>
+        <v>-15.47320628884725</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.177553799383497</v>
+        <v>-2.170785078814324</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.533117743312972</v>
+        <v>-3.515678795927793</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.014467241351186</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.55701330269102</v>
+        <v>-16.44427548292092</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.010509107425914</v>
+        <v>-2.006712339601814</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.89489416438451</v>
+        <v>-2.874561818071309</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.6291520285497665</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.19020943732826</v>
+        <v>-17.08825967509974</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.732088195193767</v>
+        <v>-1.724075705854631</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.523714286518734</v>
+        <v>-2.512297798440749</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.193556316441</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.09313319511074</v>
+        <v>-17.99418157023297</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.566117072069206</v>
+        <v>-1.554687491688379</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.931457782867572</v>
+        <v>-1.915432804189299</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2795061132685289</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.00603328765862</v>
+        <v>-18.91176870719819</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.404937731784716</v>
+        <v>-1.386621600109142</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.562843996358775</v>
+        <v>-1.566968071753918</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7674123963880739</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.79328654983445</v>
+        <v>-19.70211175284467</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.166199589465842</v>
+        <v>-1.139582937788612</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.02890060956466</v>
+        <v>-1.039426821049408</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.248005171209219</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.77668869318502</v>
+        <v>-20.68942849474491</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.069944978973472</v>
+        <v>-1.041312112658617</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6727245107555027</v>
+        <v>-0.6772282629330564</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.702218946836483</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.61902127341599</v>
+        <v>-21.52964012191552</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9232326333290892</v>
+        <v>-0.8897032457514288</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2947104508063459</v>
+        <v>-0.3098451528913812</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.10833982463291</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.2721962621897</v>
+        <v>-22.17876958911114</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6734184028061141</v>
+        <v>-0.6323871257001447</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06839147620608491</v>
+        <v>0.06867950686860287</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.449486257284998</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.89597903108374</v>
+        <v>-22.80983167838518</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3743247443868821</v>
+        <v>-0.331028498889294</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3902133723585534</v>
+        <v>0.3847407897707119</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.71563050464258</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.52659598206116</v>
+        <v>-23.44034389093987</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1098602269840155</v>
+        <v>-0.05917992268369391</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3569327385348857</v>
+        <v>0.3480954341167206</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.898179737840222</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.03356922500132</v>
+        <v>-23.95183397836042</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002288439158209982</v>
+        <v>0.05761651096734435</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6271185922795866</v>
+        <v>0.6069826305090119</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.994355740037784</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.41950412816972</v>
+        <v>-24.33505877484059</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01419477011952314</v>
+        <v>0.03838391809284875</v>
       </c>
       <c r="G24" t="n">
-        <v>0.553448204189194</v>
+        <v>0.5381956713785832</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.007505605067221</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.6851338605255</v>
+        <v>-24.60847842738719</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2751713072883064</v>
+        <v>0.3247125812413978</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5431576541555974</v>
+        <v>0.5272635985057419</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.94360642994417</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.69457341087438</v>
+        <v>-24.626113759315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2914843166290971</v>
+        <v>0.3378572532944908</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3867570044083377</v>
+        <v>0.3670269040258565</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.812328519720249</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.6649586218464</v>
+        <v>-24.60351644461018</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1085062921131336</v>
+        <v>0.1564633974223762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3612531984726553</v>
+        <v>0.3435654973334834</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.628118259446617</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.77299630489632</v>
+        <v>-24.71608406444334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2266643252597113</v>
+        <v>0.2719113238807166</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07590645803723567</v>
+        <v>0.05584905008371133</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.40844244442875</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.81584741209729</v>
+        <v>-24.7617238321496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1816922649983823</v>
+        <v>0.2178008362358628</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02372596658829972</v>
+        <v>-0.03845480728524154</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.171771606916627</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.58584183577385</v>
+        <v>-24.53508297765648</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05262834358464671</v>
+        <v>0.09288717482295437</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.220241432242608</v>
+        <v>-0.2346167807628232</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.93862911515043</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.11996533145387</v>
+        <v>-24.0618355068366</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05368882011482653</v>
+        <v>0.09106734472795446</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6834732913885597</v>
+        <v>-0.6932139647028039</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.730463889212674</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.20265631620221</v>
+        <v>-24.14693547530782</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1200929801280611</v>
+        <v>0.1542377059392827</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7464210834515786</v>
+        <v>-0.748319467363629</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.564647624660082</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.78074376482475</v>
+        <v>-23.72319000153252</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0377554875564459</v>
+        <v>0.06695132289349504</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.208252066193466</v>
+        <v>-1.21041229616235</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.457642932716069</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.21510391285081</v>
+        <v>-23.16257759384981</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1134606102654902</v>
+        <v>-0.0903657880526854</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.286203637313103</v>
+        <v>-1.283035300025405</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.422985878638684</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.86917908716673</v>
+        <v>-22.82052808980687</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.307226692323036</v>
+        <v>-0.2814086711191522</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.309494844068533</v>
+        <v>-1.305318399462023</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.465743367403329</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.14174455667474</v>
+        <v>-22.094572989536</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4348111835156565</v>
+        <v>-0.413470729883643</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.516457967390539</v>
+        <v>-1.507542109155324</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.589269717465276</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.33833539279222</v>
+        <v>-21.28148861385345</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3685903157422061</v>
+        <v>-0.350051614918322</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.633254401041577</v>
+        <v>-1.636226353786649</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.791786650229531</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.96015113290612</v>
+        <v>-20.90698329106587</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.427427124712923</v>
+        <v>-0.4048429023109456</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.881235709166711</v>
+        <v>-1.885464522984588</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>2.062034358798732</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.3043053143527</v>
+        <v>-20.2531929640586</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2791175181218501</v>
+        <v>-0.2560619728175705</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.035777251910445</v>
+        <v>-2.037832743456596</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>2.389952707772373</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.99084939971609</v>
+        <v>-19.95002759945559</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5608638752757951</v>
+        <v>-0.5372060840407961</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.257717969683386</v>
+        <v>-2.263072721545651</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.761840095368993</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.46215602636151</v>
+        <v>-19.41426438256648</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2848912236750513</v>
+        <v>-0.2592303101052683</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.111188916278787</v>
+        <v>-2.102037396592421</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.156725191121902</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.90816832391672</v>
+        <v>-18.85650609690326</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.03107074848250804</v>
+        <v>0.0008482858456201148</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.091759938861666</v>
+        <v>-2.07274991513548</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>3.55903574571225</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.01139794846985</v>
+        <v>-17.9527706163446</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.04007825283761558</v>
+        <v>-0.008774556743048546</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.989626884393361</v>
+        <v>-1.960954741169981</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>3.95257089952687</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.67602551887619</v>
+        <v>-17.61734581753958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01306340439695054</v>
+        <v>0.03741508768256102</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.197113699829035</v>
+        <v>-2.16278568177803</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.317654731241213</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.16597558476823</v>
+        <v>-17.10772792942539</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01962807579883945</v>
+        <v>0.007747929443209753</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.238419915294681</v>
+        <v>-2.204537035540294</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.642670980921753</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.78911364746914</v>
+        <v>-16.73110165357745</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.002922297372796993</v>
+        <v>0.02567129203353274</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.184243966135619</v>
+        <v>-2.143500719692168</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.917627804399689</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.11781891156248</v>
+        <v>-16.0620064245482</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00979032868651902</v>
+        <v>0.03143190528389221</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.480679887077981</v>
+        <v>-2.432879889402839</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.132130747265074</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.46117446253571</v>
+        <v>-15.41257583438722</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01922221441074595</v>
+        <v>0.0001936707035338114</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.417574987380861</v>
+        <v>-2.366266252544137</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.284126535193557</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.93055652066339</v>
+        <v>-14.8752415411571</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1294016074485284</v>
+        <v>0.1515275992510454</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.608971362624054</v>
+        <v>-2.546612724188913</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.374666771241058</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.22858651919856</v>
+        <v>-14.17722541515047</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2713614471613641</v>
+        <v>0.2985279755579457</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.536440004880892</v>
+        <v>-2.455149896536615</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.405540999149982</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.45371857551101</v>
+        <v>-13.41415363632331</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2705759089908606</v>
+        <v>0.2925186085535935</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.613160899533407</v>
+        <v>-2.520153180145785</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>5.383574000484621</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86435547078787</v>
+        <v>-12.82753991519693</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3506746177765406</v>
+        <v>0.3774876539963957</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.628491986161068</v>
+        <v>-2.530600837813482</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>5.317139556183188</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.20758009873268</v>
+        <v>-12.17617166421538</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4029259984178694</v>
+        <v>0.426125559053408</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.650722716386319</v>
+        <v>-2.549663230751035</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>5.214659925951915</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.83670134383226</v>
+        <v>-11.79848491183727</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2894157327801044</v>
+        <v>0.3171452301988802</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.76018746044599</v>
+        <v>-2.654087438216642</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>5.084572963052194</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.37875877503437</v>
+        <v>-11.34411654171516</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04384340837784852</v>
+        <v>0.06793324560662449</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.232832685335143</v>
+        <v>-3.117581143419429</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>4.93439837231852</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.93420963204356</v>
+        <v>-10.89811415310892</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1308024838525931</v>
+        <v>0.1600637807038508</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.306097212037442</v>
+        <v>-3.186263364127123</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>4.77187632746583</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.17700320488949</v>
+        <v>-10.14226932545039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.06610032320878284</v>
+        <v>0.09575438914529238</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.670220338671528</v>
+        <v>-3.55236342849031</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>4.601256981418572</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.874780486091087</v>
+        <v>-9.83991568362357</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1071370279929365</v>
+        <v>-0.07864817700934057</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.703671172432138</v>
+        <v>-3.586036831399229</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.425159421645535</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.330101410966757</v>
+        <v>-9.295943592852694</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.02153955201373146</v>
+        <v>0.01268372761454048</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.987080252046982</v>
+        <v>-3.871854894736951</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>4.248593104709788</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.961474532155119</v>
+        <v>-8.931650266281666</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1562855328607761</v>
+        <v>-0.1241832062928638</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.896298224142453</v>
+        <v>-3.784018634971811</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>4.07242682905455</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.424179515833522</v>
+        <v>-8.405156399804493</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1782151401206673</v>
+        <v>-0.1496215507143376</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.299462597850566</v>
+        <v>-4.186030886029851</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.897103074154483</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.918057272578076</v>
+        <v>-7.892776035790702</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1229656221285833</v>
+        <v>-0.09168811063969974</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.257279198094524</v>
+        <v>-4.143336886462983</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>3.728488165544585</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.441798572104607</v>
+        <v>-7.408203723012737</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1770630174705954</v>
+        <v>-0.1498964890740138</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.259085935886683</v>
+        <v>-4.146269562299529</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>3.568837236265308</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.075266461747644</v>
+        <v>-7.057670406728364</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3343801284167759</v>
+        <v>-0.3077634767395468</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.50519504470545</v>
+        <v>-4.396489654210598</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>3.421069857850827</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.709951935554961</v>
+        <v>-6.682955607095322</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2798245024753033</v>
+        <v>-0.2535613429748008</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.790410862112452</v>
+        <v>-4.681600733194866</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>3.293419147848025</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.460530474117237</v>
+        <v>-6.434581529884936</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3961103363155143</v>
+        <v>-0.3713135147332851</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.782882787978459</v>
+        <v>-4.676128150607025</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>3.189212510940524</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.293354859131237</v>
+        <v>-6.271058667391778</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4519751925411594</v>
+        <v>-0.4262619097600094</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.895764623079821</v>
+        <v>-4.792636553595545</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>3.1118708256581</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.014947039201933</v>
+        <v>-5.994732523614307</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4158404366979955</v>
+        <v>-0.3960972440126725</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.887856872163419</v>
+        <v>-4.791314231008531</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>3.06755842238375</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.879677366241219</v>
+        <v>-5.861426696079853</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6745443408505025</v>
+        <v>-0.6520255799627337</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.985996774264998</v>
+        <v>-4.893133070208634</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>3.056873970949749</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.647066421652272</v>
+        <v>-5.622321969281409</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6216252527642459</v>
+        <v>-0.5963178313711893</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.850569993670183</v>
+        <v>-4.761529242043604</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>3.080511767843149</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.523357252100802</v>
+        <v>-5.499764922380012</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7163480638241339</v>
+        <v>-0.6970107325269045</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.824215188049789</v>
+        <v>-4.739599634783713</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>3.140579701028059</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.503273659541595</v>
+        <v>-5.478031699662747</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8082822143787344</v>
+        <v>-0.7897827904633754</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.717722396735189</v>
+        <v>-4.641315717350875</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>3.233735097240989</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.543388475448643</v>
+        <v>-5.511115948943789</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8646314858095233</v>
+        <v>-0.8500204758381571</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.530999973606492</v>
+        <v>-4.455038432518797</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>3.358031046363957</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.77918084962813</v>
+        <v>-5.74846630716144</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7584660020659667</v>
+        <v>-0.7414067314631976</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.423551444184445</v>
+        <v>-4.340520059562219</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.511548036520711</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.974753669477834</v>
+        <v>-5.951344631996827</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.083299127872032</v>
+        <v>-1.07334897771232</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.261298535066935</v>
+        <v>-4.174771505585967</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>3.687247605761031</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.503001904535797</v>
+        <v>-6.47943575942069</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9960127448262445</v>
+        <v>-0.9844391491141586</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.093010074339388</v>
+        <v>-4.009206243849499</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>3.88121957419977</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.970632777436569</v>
+        <v>-6.945495555980455</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.052126354805882</v>
+        <v>-1.042896281302466</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.016865241011909</v>
+        <v>-3.929447934937704</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>4.089781853811643</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.552153592757516</v>
+        <v>-7.519566850984459</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.141677706243289</v>
+        <v>-1.136480062015123</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.618112973361458</v>
+        <v>-3.525196900093728</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.304735126103411</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.977352312148253</v>
+        <v>-7.945826046905377</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.103552920368182</v>
+        <v>-1.101693813364657</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.416321309661934</v>
+        <v>-3.315130900998233</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>4.523228539916671</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.44782421476568</v>
+        <v>-8.418379625674637</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.290393174222455</v>
+        <v>-1.286098898890369</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.049501168642453</v>
+        <v>-2.947263375751414</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>4.742714417965169</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.388938219937474</v>
+        <v>-9.360946876461863</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.211237111241379</v>
+        <v>-1.209796957928789</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.032887036336303</v>
+        <v>-2.92288550786012</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.956467620533175</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.21104319227798</v>
+        <v>-10.18802692388222</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.303262907915872</v>
+        <v>-1.302817769619253</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.859558039014691</v>
+        <v>-2.748181818740127</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>5.163082738694394</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.04545492928971</v>
+        <v>-11.02215063023143</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.410004452984464</v>
+        <v>-1.412334882890292</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.483795855154312</v>
+        <v>-2.373689588255395</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>5.360837042244526</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.25539318871066</v>
+        <v>-12.24079527104214</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.486254024734677</v>
+        <v>-1.487314501264857</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.379554939928489</v>
+        <v>-2.269082088550004</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>5.543074130805289</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.14100892213638</v>
+        <v>-13.12964480326976</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.581552897119601</v>
+        <v>-1.586606526016507</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.040398834813574</v>
+        <v>-1.923104893654551</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>5.70725196951362</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.3227594535391</v>
+        <v>-14.32402940691475</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.788646943470024</v>
+        <v>-1.797536617099556</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.788502928138765</v>
+        <v>-1.681394798590604</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.849818682244022</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42085016978319</v>
+        <v>-15.42816876707172</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.82821188265772</v>
+        <v>-1.838685724931101</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.375074189002739</v>
+        <v>-1.265832014091377</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>5.962432334012691</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83547349183169</v>
+        <v>-16.8449523190891</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.850102213009086</v>
+        <v>-1.8641633462611</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.065166288436242</v>
+        <v>-0.9610562962388358</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>6.038740075715023</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.51285933191364</v>
+        <v>-18.54238247482173</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.0753290987953</v>
+        <v>-2.090869662268429</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8617511791843436</v>
+        <v>-0.7510688509603914</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>6.072104943788856</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.12704862617857</v>
+        <v>-20.15689907665771</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.300974938272449</v>
+        <v>-2.312679457012952</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5693476875172336</v>
+        <v>-0.4621348195463388</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>6.053500780812379</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.95080641203101</v>
+        <v>-21.98544864535022</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.508042800017188</v>
+        <v>-2.524408178569346</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7228156614279466</v>
+        <v>-0.6278833735225908</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.973919526497625</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.66900096007062</v>
+        <v>-23.70997986796522</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.60984854691445</v>
+        <v>-2.628334878526967</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5451007426543569</v>
+        <v>-0.4493698242756559</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>5.825643140512236</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.74660540572128</v>
+        <v>-25.78941723601373</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.789998634016601</v>
+        <v>-2.801716245059946</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.5336711622735301</v>
+        <v>-0.4474714403636056</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>5.601792872823422</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.01294848913827</v>
+        <v>-28.05898102592978</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.660096805220995</v>
+        <v>-2.674445969135526</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6712058036258625</v>
+        <v>-0.5822174212106503</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>5.297222495584748</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.2914150449867</v>
+        <v>-30.33997439622667</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.150613023489103</v>
+        <v>-3.163050711188743</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.044886311334408</v>
+        <v>-0.9699066929598427</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.902192647875277</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.47371863646266</v>
+        <v>-32.52350866416974</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.211073278012194</v>
+        <v>-3.222437396878813</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.270571427720082</v>
+        <v>-1.193994548398826</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.42733887755891</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.69882096592821</v>
+        <v>-34.74858480902961</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.575824835182683</v>
+        <v>-3.60318774812189</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.49818111262349</v>
+        <v>-1.430179691663564</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.854181218587794</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.20103497734173</v>
+        <v>-37.25303760422907</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.821240051950838</v>
+        <v>-3.847660319085441</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.922476463118148</v>
+        <v>-1.861086655093295</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.216532240942366</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.72922411759325</v>
+        <v>-39.78855843407195</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.71407955319131</v>
+        <v>-3.741285358496417</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.398420948323416</v>
+        <v>-2.340762446608454</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.480296759344717</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.30089279558214</v>
+        <v>-42.35446649881047</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.901783899033137</v>
+        <v>-3.923333829510618</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.752017863472753</v>
+        <v>-2.705514003778942</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.727845317462586</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.55416976076308</v>
+        <v>-44.59665428348448</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.134159182170933</v>
+        <v>-4.165567616688233</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.35561230138485</v>
+        <v>-3.315366562449384</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.8516960872098182</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86099424456669</v>
+        <v>-46.89938087649863</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.274521760937078</v>
+        <v>-4.309596040250062</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.626334939546062</v>
+        <v>-3.592020013797898</v>
       </c>
     </row>
   </sheetData>
